--- a/Excel/Personal.xlsx
+++ b/Excel/Personal.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6045" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Oct 2018" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>Salary</t>
   </si>
@@ -87,6 +88,36 @@
   </si>
   <si>
     <t>40% NI</t>
+  </si>
+  <si>
+    <t>Money In</t>
+  </si>
+  <si>
+    <t>Nadia</t>
+  </si>
+  <si>
+    <t>Mazar</t>
+  </si>
+  <si>
+    <t>Total Payouts</t>
+  </si>
+  <si>
+    <t>Diff</t>
+  </si>
+  <si>
+    <t>EE Broadband</t>
+  </si>
+  <si>
+    <t>EE Mobile</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Nationwide Loan</t>
+  </si>
+  <si>
+    <t>Nationwide CC</t>
   </si>
 </sst>
 </file>
@@ -148,7 +179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -171,11 +202,157 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="0.79998168889431442"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </right>
+      <top style="medium">
+        <color theme="4" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </left>
+      <right style="medium">
+        <color theme="4" tint="0.79998168889431442"/>
+      </right>
+      <top style="medium">
+        <color theme="4" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="0.79998168889431442"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </left>
+      <right style="medium">
+        <color theme="4" tint="0.79998168889431442"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="0.79998168889431442"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </left>
+      <right style="medium">
+        <color theme="4" tint="0.79998168889431442"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="0.79998168889431442"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </right>
+      <top style="medium">
+        <color theme="4" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </left>
+      <right style="medium">
+        <color theme="4" tint="0.79998168889431442"/>
+      </right>
+      <top style="medium">
+        <color theme="4" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="0.79998168889431442"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </left>
+      <right style="medium">
+        <color theme="4" tint="0.79998168889431442"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -234,6 +411,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,7 +704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -1010,4 +1198,148 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="20" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="20"/>
+    <col min="7" max="7" width="19.140625" style="20" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="28">
+        <v>250</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="22">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="G3" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="24">
+        <f>SUM(C:C)</f>
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="G4" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="26">
+        <f>H2-H3</f>
+        <v>779</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+    </row>
+    <row r="6" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="24">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="23"/>
+      <c r="C8" s="24"/>
+    </row>
+    <row r="9" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
+    </row>
+    <row r="10" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="24">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+    </row>
+    <row r="13" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+    </row>
+    <row r="14" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+    </row>
+    <row r="15" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+    </row>
+    <row r="16" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+    </row>
+    <row r="17" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+    </row>
+    <row r="18" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="24">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="26">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>